--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_국어_복습_고유어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_국어_복습_고유어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,50 +463,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이미 내디뎌 걷고 있는 그대로의 걸음
-그 사람들고 [   ]으로 그리 내달았다
-1. 명지바람
-2. 선걸음
-3. 하늬바람</t>
+          <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
+2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일
+1. 높새바람
+2. 맨드리
+3. 만수받이</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2, 선걸음</t>
+          <t>3, 만수받이</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20221211</v>
+        <v>20221212</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>지나치게 치켜세우다
-1. 치살리다
-2. 하늬바람
-3. 트레바리</t>
+          <t>일의 진행 과정에서 가장 중요한 대목
+그는 [   ]을 무사히 넘겼다
+1. 맨드리
+2. 줄목
+3. 갈무리</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1, 치살리다</t>
+          <t>2, 줄목</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20221211</v>
+        <v>20221212</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>옷을 입고 매만진 맵시
+그는 인물보다 [   ]가 쓰레기꾼 축에 섞이기는 아까웠다
+1. 선걸음
+2. 맨드리
+3. 줄목</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2, 맨드리</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>물건 따위를 잘 정리하거나 간수함
+겨울 동안 [   ]를 했던 산나물을 팔았다
+1. 상없다
+2. 갈무리
+3. 살바람</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2, 갈무리</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>보드랍고 화창한 바람
+1. 빗먹다
+2. 명지바람
+3. 데알다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2, 명지바람</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>마음이나 생각 따위가 잘못 들다
 1. 트레바리
@@ -514,42 +583,356 @@
 3. 빗들다</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>3, 빗들다</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>20221211</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>보통의 이치에서 벗어나 막되고 상스럽다
+      <c r="D7" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>음식을 먹지 않음
+그녀는 [   ]으로 출근 시간이 되기만을 기다렸다
+1. 잔입
+2. 갈무리
+3. 데알다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1, 잔입</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다
+1. 명지바람
+2. 빗먹다
+3. 하늬바람</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2, 빗먹다</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람
+1. 빗들다
+2. 빗먹다
+3. 살바람</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3, 살바람</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말
+1. 줄목
+2. 트레바리
+3. 치살리다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2, 트레바리</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
+2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일
+1. 높새바람
+2. 맨드리
+3. 만수받이</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3, 만수받이</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말
+1. 줄목
+2. 트레바리
+3. 치살리다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2, 트레바리</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람
+1. 빗들다
+2. 빗먹다
+3. 살바람</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3, 살바람</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>마음이나 생각 따위가 잘못 들다
+1. 트레바리
+2. 빗먹다
+3. 빗들다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3, 빗들다</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>옷을 입고 매만진 맵시
+그는 인물보다 [   ]가 쓰레기꾼 축에 섞이기는 아까웠다
+1. 선걸음
+2. 맨드리
+3. 줄목</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2, 맨드리</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>물건 따위를 잘 정리하거나 간수함
+겨울 동안 [   ]를 했던 산나물을 팔았다
+1. 상없다
+2. 갈무리
+3. 살바람</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2, 갈무리</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>일의 진행 과정에서 가장 중요한 대목
+그는 [   ]을 무사히 넘겼다
+1. 맨드리
+2. 줄목
+3. 갈무리</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2, 줄목</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다
+1. 명지바람
+2. 빗먹다
+3. 하늬바람</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2, 빗먹다</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>보드랍고 화창한 바람
 1. 빗먹다
-2. 하늬바람
+2. 명지바람
+3. 데알다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2, 명지바람</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>음식을 먹지 않음
+그녀는 [   ]으로 출근 시간이 되기만을 기다렸다
+1. 잔입
+2. 갈무리
+3. 데알다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1, 잔입</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221212</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말
+1. 빗들다
+2. 윤똑똑이
 3. 상없다</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3, 상없다</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20221211</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23</t>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2, 윤똑똑이</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20221212</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>00</t>
         </is>
       </c>
     </row>
